--- a/student.xlsx
+++ b/student.xlsx
@@ -12,26 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>апыпкпыкпит</t>
-  </si>
-  <si>
-    <t>ыапиыапиапиыаи</t>
-  </si>
-  <si>
-    <t>апиыкпикпиыкпи</t>
-  </si>
-  <si>
-    <t>2016-06-01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0508745454</t>
-  </si>
-  <si>
     <t>муж</t>
   </si>
   <si>
@@ -44,16 +41,49 @@
     <t>АД</t>
   </si>
   <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>2016-06-02</t>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Александров</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>1985-06-16</t>
+  </si>
+  <si>
+    <t>wewevew@gmail.com</t>
+  </si>
+  <si>
+    <t>0508472145</t>
+  </si>
+  <si>
+    <t>Инвалидность</t>
+  </si>
+  <si>
+    <t>ЭМО</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
+  </si>
+  <si>
+    <t>2000-06-09</t>
+  </si>
+  <si>
+    <t>0958574826</t>
+  </si>
+  <si>
+    <t>Дети шахтёров</t>
+  </si>
+  <si>
+    <t>АТР</t>
   </si>
 </sst>
 </file>
@@ -136,51 +166,83 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
